--- a/the/modules/ss111.xlsx
+++ b/the/modules/ss111.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\we-compare\the\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DD6820-43BE-41BE-8A90-7E445AFD9926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F14C33B-E4FC-4257-9C9C-46E3860CBF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3800" yWindow="3430" windowWidth="28930" windowHeight="17450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飒飒撒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +364,7 @@
   <dimension ref="D1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -370,6 +374,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="7" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>1</v>
